--- a/ClearCLIP/results.xlsx
+++ b/ClearCLIP/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,564 @@
         <v>90.34999999999999</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>87.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>77.93000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>88.65000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>87.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>77.93000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88.65000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>77.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>66.72</v>
+      </c>
+      <c r="G9" t="n">
+        <v>81.65000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>77.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66.72</v>
+      </c>
+      <c r="G10" t="n">
+        <v>81.65000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>87.13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>77.93000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>88.65000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="G12" t="n">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GEM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>88.47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>80.23</v>
+      </c>
+      <c r="G13" t="n">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="G15" t="n">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>87.13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>77.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>88.65000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SCLIP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>77.88</v>
+      </c>
+      <c r="G17" t="n">
+        <v>89.37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MaskCLIP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>61.41</v>
+      </c>
+      <c r="G18" t="n">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75.73999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>88.31999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ViT-L-14</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GEM</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90.73999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ViT-L-14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>88.62</v>
+      </c>
+      <c r="F21" t="n">
+        <v>80.44</v>
+      </c>
+      <c r="G21" t="n">
+        <v>91.22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ViT-L-14</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ClearCLIP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>91.05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ViT-L-14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MYCLIP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PascalVOC20Dataset</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>88.62</v>
+      </c>
+      <c r="F23" t="n">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>91.20999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
